--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1450258.107492831</v>
+        <v>1507546.277265545</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577128</v>
+        <v>612367.9462114766</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7012000.713602914</v>
+        <v>7416764.500254247</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>181.9467392580486</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>343.6154541817036</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>65.16598452529581</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>267.4623584289859</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.92354263357639</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>43.72464718200572</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -911,7 +913,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>86.95320875739024</v>
+        <v>120.5425075844552</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>46.93907536729473</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>249.1987226586197</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1291,19 +1293,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>141.3043135059329</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>73.50111029899462</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>408.7513102038458</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.54790254396377</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1528,16 +1530,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1576,13 +1578,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>76.34947650094023</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1591,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>135.4752932419133</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>23.47915593102388</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>104.5205783485579</v>
       </c>
       <c r="T16" t="n">
-        <v>225.834900700392</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1825,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446594</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.7284958494691</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2014,10 +2016,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5944000087176</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2050,7 +2052,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2062,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>4.189330526351196</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2087,19 +2089,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250137</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2248,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>12.06219323947358</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>161.6737988100371</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>65.03771525101762</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2485,10 +2487,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>101.8180037136793</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2609,7 +2611,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2713,19 +2715,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>57.29215110549234</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2770,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>221.0228496387101</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -2962,10 +2964,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2998,10 +3000,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>18.42910700403934</v>
       </c>
       <c r="T31" t="n">
-        <v>55.86477022198792</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>106.858786719141</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3250,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>128.2005997690989</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>162.1153930556974</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3484,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>38.74533713701027</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3664,10 +3666,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>31.33921635700823</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>208.795440755755</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3740,13 +3742,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>368.0939547704322</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439307</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>44.46305123648278</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>88.2185662906153</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3977,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4037,10 +4039,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>110.4200744947658</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4144,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4189,13 +4191,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>84.1609091353005</v>
       </c>
       <c r="V46" t="n">
-        <v>186.1216324413308</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>965.3211864711366</v>
+        <v>1044.425230527181</v>
       </c>
       <c r="C2" t="n">
-        <v>942.4608605248408</v>
+        <v>617.5245005404813</v>
       </c>
       <c r="D2" t="n">
-        <v>519.168239709841</v>
+        <v>598.2722837658856</v>
       </c>
       <c r="E2" t="n">
-        <v>497.2317038981026</v>
+        <v>576.3357479541472</v>
       </c>
       <c r="F2" t="n">
-        <v>72.10752208750284</v>
+        <v>555.2519701839515</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>371.4673850748115</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.5990065488463</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="M2" t="n">
-        <v>814.4714747539724</v>
+        <v>880.2445183516422</v>
       </c>
       <c r="N2" t="n">
-        <v>814.4714747539724</v>
+        <v>1359.183442594071</v>
       </c>
       <c r="O2" t="n">
-        <v>1271.257381456703</v>
+        <v>1479.021285111693</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1479.021285111693</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="U2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="V2" t="n">
-        <v>1741.232328914477</v>
+        <v>1473.250055615266</v>
       </c>
       <c r="W2" t="n">
-        <v>1394.146011559221</v>
+        <v>1473.250055615266</v>
       </c>
       <c r="X2" t="n">
-        <v>982.4260127269682</v>
+        <v>1465.570460823417</v>
       </c>
       <c r="Y2" t="n">
-        <v>981.1291467222626</v>
+        <v>1464.273594818711</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000792</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>46.14877825422936</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>46.14877825422936</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273854</v>
+        <v>525.0877024966586</v>
       </c>
       <c r="L3" t="n">
-        <v>44.35863542273854</v>
+        <v>525.0877024966586</v>
       </c>
       <c r="M3" t="n">
-        <v>44.35863542273854</v>
+        <v>525.0877024966586</v>
       </c>
       <c r="N3" t="n">
-        <v>501.1445421254694</v>
+        <v>822.2860546829156</v>
       </c>
       <c r="O3" t="n">
-        <v>932.027809635875</v>
+        <v>822.2860546829156</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>412.7894574516683</v>
+        <v>978.0869893247088</v>
       </c>
       <c r="C4" t="n">
-        <v>412.7894574516683</v>
+        <v>806.1144262036248</v>
       </c>
       <c r="D4" t="n">
-        <v>346.9652306584402</v>
+        <v>642.7976533303955</v>
       </c>
       <c r="E4" t="n">
-        <v>346.9652306584402</v>
+        <v>476.589447483249</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>304.7276732578094</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>96.19346351647553</v>
       </c>
       <c r="K4" t="n">
-        <v>263.4395936666639</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>618.1289149610848</v>
+        <v>520.4021181679252</v>
       </c>
       <c r="M4" t="n">
-        <v>1009.314709931336</v>
+        <v>911.587913138176</v>
       </c>
       <c r="N4" t="n">
-        <v>1386.806220807371</v>
+        <v>1289.079424014212</v>
       </c>
       <c r="O4" t="n">
-        <v>1718.599492800575</v>
+        <v>1644.507552693975</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.933103822184</v>
       </c>
       <c r="T4" t="n">
-        <v>1628.425962247645</v>
+        <v>1474.593756048084</v>
       </c>
       <c r="U4" t="n">
-        <v>1628.425962247645</v>
+        <v>1204.429757634967</v>
       </c>
       <c r="V4" t="n">
-        <v>1346.714494855674</v>
+        <v>1204.429757634967</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.862091028187</v>
+        <v>1204.429757634967</v>
       </c>
       <c r="X4" t="n">
-        <v>829.2981944739919</v>
+        <v>1204.429757634967</v>
       </c>
       <c r="Y4" t="n">
-        <v>602.9554261637339</v>
+        <v>978.0869893247088</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>824.2522897001689</v>
+        <v>959.316532141587</v>
       </c>
       <c r="C5" t="n">
-        <v>801.3919637538731</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>782.1397469792774</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>760.2032111675391</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>739.1194333973433</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>399.5154512777223</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
-        <v>815.1719019525203</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>1741.232328914477</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>1741.232328914477</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>1741.232328914477</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X5" t="n">
-        <v>1329.512330082224</v>
+        <v>1380.461762437823</v>
       </c>
       <c r="Y5" t="n">
-        <v>924.1750600371148</v>
+        <v>975.124492392713</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273854</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273854</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L6" t="n">
-        <v>44.35863542273854</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>501.1445421254694</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511718</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253903</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.6052906836302</v>
+        <v>767.4624187845752</v>
       </c>
       <c r="C7" t="n">
-        <v>208.7737666862663</v>
+        <v>645.7023101134083</v>
       </c>
       <c r="D7" t="n">
-        <v>208.7737666862663</v>
+        <v>482.385537240179</v>
       </c>
       <c r="E7" t="n">
-        <v>208.7737666862663</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>712.1167168610727</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1602.260275267237</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1322.075826767541</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V7" t="n">
-        <v>1040.36435937557</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="W7" t="n">
-        <v>765.5119555480831</v>
+        <v>1426.535052361094</v>
       </c>
       <c r="X7" t="n">
-        <v>522.9480589938881</v>
+        <v>1183.971155806899</v>
       </c>
       <c r="Y7" t="n">
-        <v>296.6052906836302</v>
+        <v>957.6283874966409</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1369.36159051154</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C8" t="n">
-        <v>942.4608605248407</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>519.1682397098409</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>93.19129985769854</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>72.10752208750284</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>475.2419029331441</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>932.027809635875</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1388.813716338606</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N8" t="n">
-        <v>1388.813716338606</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1798.186415599625</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W8" t="n">
-        <v>1798.186415599625</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="X8" t="n">
-        <v>1790.506820807776</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1789.209954803071</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>501.1445421254694</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>932.027809635875</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M9" t="n">
-        <v>1388.813716338606</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.6436222647994</v>
+        <v>792.1010868727071</v>
       </c>
       <c r="C10" t="n">
-        <v>36.91199246082674</v>
+        <v>620.1285237516231</v>
       </c>
       <c r="D10" t="n">
-        <v>36.91199246082674</v>
+        <v>456.8117508783938</v>
       </c>
       <c r="E10" t="n">
-        <v>36.91199246082674</v>
+        <v>290.6035450312473</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>118.7417708058078</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>303.8948463526241</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1395.280127060776</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="V10" t="n">
-        <v>1113.568659668805</v>
+        <v>1726.026124276713</v>
       </c>
       <c r="W10" t="n">
-        <v>838.7162558413179</v>
+        <v>1451.173720449226</v>
       </c>
       <c r="X10" t="n">
-        <v>596.152359287123</v>
+        <v>1208.609823895031</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.809590976865</v>
+        <v>982.2670555847728</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1633.42609040768</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1206.52536042098</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>783.2327396059807</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>370.3526282889647</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>370.3526282889647</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G11" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883228</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623576</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.087708579895</v>
+        <v>409.5807935972459</v>
       </c>
       <c r="K11" t="n">
-        <v>867.5263214830229</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L11" t="n">
-        <v>867.5263214830229</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M11" t="n">
-        <v>1764.518912300142</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N11" t="n">
-        <v>2661.511503117261</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O11" t="n">
-        <v>3506.656153268073</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P11" t="n">
-        <v>3506.656153268073</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3266.723073276225</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2870.331723576573</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2458.61172474432</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2053.27445469921</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>934.6666656109302</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>1771.465473693836</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>1771.465473693836</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.465473693836</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1771.465473693836</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.665372287236</v>
+        <v>3507.861222208871</v>
       </c>
       <c r="C13" t="n">
-        <v>983.6928091661523</v>
+        <v>3507.861222208871</v>
       </c>
       <c r="D13" t="n">
-        <v>820.376036292923</v>
+        <v>3344.544449335642</v>
       </c>
       <c r="E13" t="n">
-        <v>654.1678304457765</v>
+        <v>3344.544449335642</v>
       </c>
       <c r="F13" t="n">
-        <v>482.306056220337</v>
+        <v>3344.544449335642</v>
       </c>
       <c r="G13" t="n">
-        <v>316.0490865145691</v>
+        <v>3178.287479629874</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227235</v>
+        <v>3034.491211138028</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299951</v>
+        <v>2934.722642878304</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102462</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.858663863301</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S13" t="n">
-        <v>2205.858663863301</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T13" t="n">
-        <v>2128.737980529018</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="U13" t="n">
-        <v>2128.737980529018</v>
+        <v>4617.77756099804</v>
       </c>
       <c r="V13" t="n">
-        <v>1847.026513137047</v>
+        <v>4336.066093606069</v>
       </c>
       <c r="W13" t="n">
-        <v>1572.17410930956</v>
+        <v>4061.213689778582</v>
       </c>
       <c r="X13" t="n">
-        <v>1572.17410930956</v>
+        <v>3924.369959231195</v>
       </c>
       <c r="Y13" t="n">
-        <v>1345.831340999302</v>
+        <v>3698.027190920936</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1407.267730795617</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>980.3670008089168</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>557.0743799939171</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>131.0974401417747</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>107.3811210195283</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>152.0180135075238</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>867.5263214830229</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1764.518912300142</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2661.511503117261</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N14" t="n">
-        <v>2661.511503117261</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3506.656153268073</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268073</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3040.564713664162</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3040.564713664162</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2644.173363964509</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2232.453365132256</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1827.116095087147</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>72.48424976299951</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M15" t="n">
-        <v>72.48424976299951</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N15" t="n">
-        <v>969.4768405801185</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O15" t="n">
-        <v>1799.152570258806</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.3504983274312</v>
+        <v>3688.37878668216</v>
       </c>
       <c r="C16" t="n">
-        <v>554.3504983274312</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="D16" t="n">
-        <v>554.3504983274312</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="E16" t="n">
-        <v>388.1422924802847</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F16" t="n">
-        <v>216.2805182548451</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2805182548451</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299951</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299951</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382436</v>
+        <v>4962.52071521238</v>
       </c>
       <c r="T16" t="n">
-        <v>1807.607555068909</v>
+        <v>4719.18136743828</v>
       </c>
       <c r="U16" t="n">
-        <v>1527.423106569213</v>
+        <v>4438.996918938585</v>
       </c>
       <c r="V16" t="n">
-        <v>1245.711639177242</v>
+        <v>4157.285451546613</v>
       </c>
       <c r="W16" t="n">
-        <v>970.8592353497547</v>
+        <v>4157.285451546613</v>
       </c>
       <c r="X16" t="n">
-        <v>970.8592353497547</v>
+        <v>3914.721554992418</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.5164670394968</v>
+        <v>3688.37878668216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,40 +5503,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,13 +5551,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5589,22 +5591,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.68756743822</v>
+        <v>1013.511272808989</v>
       </c>
       <c r="C19" t="n">
-        <v>869.7150043171358</v>
+        <v>1013.511272808989</v>
       </c>
       <c r="D19" t="n">
-        <v>706.3982314439065</v>
+        <v>850.1944999357596</v>
       </c>
       <c r="E19" t="n">
-        <v>540.1900255967601</v>
+        <v>683.9862940886131</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631735</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5698,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232334</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840363</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.441863840363</v>
+        <v>1256.075169363184</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.877967286168</v>
+        <v>1013.511272808989</v>
       </c>
       <c r="Y19" t="n">
-        <v>1187.877967286168</v>
+        <v>1013.511272808989</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5740,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P20" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5786,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>615.9842888225141</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>280.6949528282008</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>114.4867469810544</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2119.408873334071</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2119.408873334071</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>2119.408873334071</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4573.117879057176</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>5029.203358561359</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6072,10 +6074,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>786.8947875232845</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C25" t="n">
-        <v>614.9222244022005</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D25" t="n">
-        <v>614.9222244022005</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>448.7140185550541</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>448.7140185550541</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
         <v>345.8675501573982</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.81982492729</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W25" t="n">
-        <v>1445.967421099803</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X25" t="n">
-        <v>1203.403524545608</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="Y25" t="n">
-        <v>977.0607562353503</v>
+        <v>1087.861724926551</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,40 +6214,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>374.0002026854196</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>1463.315149158289</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="C28" t="n">
-        <v>268.510919252975</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1365.801493388831</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1090.949089561344</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>848.3851930071494</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>622.0424246968914</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3114.325629236558</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3535.877964083838</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>3535.877964083838</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>3372.561191210609</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>3206.352985363462</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>3034.491211138023</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>3034.491211138023</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2217.06186790609</v>
       </c>
       <c r="T31" t="n">
-        <v>4841.532948667445</v>
+        <v>1973.72252013199</v>
       </c>
       <c r="U31" t="n">
-        <v>4561.348500167749</v>
+        <v>1693.538071632295</v>
       </c>
       <c r="V31" t="n">
-        <v>4279.637032775778</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="W31" t="n">
-        <v>4004.784628948291</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="X31" t="n">
-        <v>3762.220732394096</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y31" t="n">
-        <v>3535.877964083838</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>923.0523692223782</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1852.677416841655</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2856.963518260713</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3833.214576747414</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,22 +6782,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>692.7876399741681</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N33" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>3688.37878668216</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U34" t="n">
-        <v>2174.777572415784</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>1893.066105023813</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W34" t="n">
-        <v>1618.213701196326</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X34" t="n">
-        <v>1375.649804642131</v>
+        <v>3688.37878668216</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>3688.37878668216</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,25 +6940,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7014,19 +7016,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>601.2341827829796</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C37" t="n">
-        <v>437.4812605044974</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7120,25 +7122,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W37" t="n">
-        <v>1260.306816359498</v>
+        <v>1391.305159661565</v>
       </c>
       <c r="X37" t="n">
-        <v>1017.742919805303</v>
+        <v>1148.74126310737</v>
       </c>
       <c r="Y37" t="n">
-        <v>791.4001514950452</v>
+        <v>922.3984947971121</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7178,31 +7180,31 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3160.951640103982</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7248,25 +7250,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L39" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M39" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N39" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O39" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P39" t="n">
         <v>1364.825557038856</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>615.9842888225141</v>
+        <v>913.8534934449018</v>
       </c>
       <c r="C40" t="n">
-        <v>444.0117257014301</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D40" t="n">
-        <v>412.355951603442</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E40" t="n">
         <v>412.355951603442</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1854.637594413391</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1572.92612702142</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1572.92612702142</v>
       </c>
       <c r="X40" t="n">
-        <v>1032.493025844838</v>
+        <v>1330.362230467225</v>
       </c>
       <c r="Y40" t="n">
-        <v>806.1502575345799</v>
+        <v>1104.019462156967</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1658.005364581644</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1658.005364581644</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1234.712743766645</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>340.7313251667151</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1056.239633142214</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1056.239633142214</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1056.239633142214</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>1953.232223959333</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>2798.376874110145</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>3506.656153268073</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3266.723073276225</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2894.910997750536</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2483.190998918284</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2077.853728873174</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>72.87248416442844</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>909.6712922473346</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M42" t="n">
-        <v>909.6712922473346</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N42" t="n">
-        <v>909.6712922473346</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.152570258806</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P42" t="n">
-        <v>1799.152570258806</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2408.575983354</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C43" t="n">
-        <v>2236.603420232916</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="D43" t="n">
-        <v>2191.691247266771</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="E43" t="n">
-        <v>2025.483041419625</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="F43" t="n">
-        <v>1853.621267194185</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>1687.364297488417</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>1543.568028996572</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>1443.799460736848</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>1501.290788961006</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>1727.818390166843</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>2082.507711461264</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>2473.693506431514</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>2851.18501730755</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>3206.613145987313</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>3497.212357909214</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>3624.212488149976</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>3624.212488149976</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>3624.212488149976</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>3624.212488149976</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>3624.212488149976</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>3342.501020758005</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>3067.648616930518</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X43" t="n">
-        <v>2825.084720376323</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y43" t="n">
-        <v>2598.741952066065</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2071.647100753406</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1644.746370766707</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1221.453749951707</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>795.4768100995645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>370.3526282889647</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>548.3062129717241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1445.298803788843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2342.291394605962</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>2342.291394605962</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.291394605962</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.57067376389</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3365.857578746388</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3008.368163872638</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2896.832735090046</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2896.832735090046</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2491.495465044936</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299951</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299951</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>344.1817390425906</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="K45" t="n">
-        <v>344.1817390425906</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="L45" t="n">
-        <v>344.1817390425906</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.17432985971</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="N45" t="n">
-        <v>1335.007093396027</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="O45" t="n">
-        <v>1335.007093396027</v>
+        <v>4467.626807001981</v>
       </c>
       <c r="P45" t="n">
-        <v>1335.007093396027</v>
+        <v>4568.970883343945</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>992.348599414007</v>
+        <v>3682.72521830387</v>
       </c>
       <c r="C46" t="n">
-        <v>820.376036292923</v>
+        <v>3510.752655182786</v>
       </c>
       <c r="D46" t="n">
-        <v>820.376036292923</v>
+        <v>3510.752655182786</v>
       </c>
       <c r="E46" t="n">
-        <v>654.1678304457765</v>
+        <v>3344.54444933564</v>
       </c>
       <c r="F46" t="n">
-        <v>482.306056220337</v>
+        <v>3344.54444933564</v>
       </c>
       <c r="G46" t="n">
-        <v>316.0490865145691</v>
+        <v>3178.287479629872</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227235</v>
+        <v>3034.491211138026</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299951</v>
+        <v>2934.722642878302</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T46" t="n">
-        <v>1839.422881921163</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.422881921163</v>
+        <v>4616.650255707876</v>
       </c>
       <c r="V46" t="n">
-        <v>1651.421232990525</v>
+        <v>4616.650255707876</v>
       </c>
       <c r="W46" t="n">
-        <v>1651.421232990525</v>
+        <v>4341.797851880388</v>
       </c>
       <c r="X46" t="n">
-        <v>1408.857336436331</v>
+        <v>4099.233955326194</v>
       </c>
       <c r="Y46" t="n">
-        <v>1182.514568126073</v>
+        <v>3872.891187015936</v>
       </c>
     </row>
   </sheetData>
@@ -7985,22 +7987,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>456.5787613602906</v>
+        <v>521.2079540534007</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.056313988415</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>158.4392851313992</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,7 +8060,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873023</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8067,19 +8069,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>321.5433839572356</v>
       </c>
       <c r="O3" t="n">
-        <v>458.4075134701066</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>505.5475323587976</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>221.5965916589462</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8149,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>357.6439066834785</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>571.1852249800523</v>
       </c>
       <c r="N5" t="n">
-        <v>457.1346235160602</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>178.8848775931265</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>373.7308639970794</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,16 +8376,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>384.8453003067499</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>478.5220861203824</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,13 +8534,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>457.7507104621139</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8547,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>90.6511520067363</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8611,10 +8613,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>232.5722561371962</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>339.8018586688364</v>
       </c>
       <c r="K11" t="n">
-        <v>472.5712804949385</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8768,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>867.7664080100944</v>
@@ -8778,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>49.73760541186887</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.7570945810656</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369257</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N14" t="n">
         <v>37.27962283444602</v>
@@ -8942,10 +8944,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9009,25 +9011,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>927.3961502510356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>861.2281823269573</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9176,16 +9178,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>611.7910214708227</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,16 +9248,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1004.802661823039</v>
+        <v>944.0661841558899</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9419,7 +9421,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,7 +9488,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>121.8329647736533</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,13 +9722,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>218.8019602116015</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>474.9442047819572</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10121,19 +10123,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>763.5414113871921</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>498.5385371580963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10430,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>59.58495761848395</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10586,13 +10588,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>630.9692526488932</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N35" t="n">
         <v>37.27962283444602</v>
@@ -10607,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,22 +10664,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>979.1626539795797</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10826,16 +10828,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>716.4444307130257</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10911,13 +10913,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>425.7272987035383</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>300.3766013075215</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11141,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.79138979437266</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11151,13 +11153,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11297,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>150.1267264431215</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
@@ -11382,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>929.1499025498219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>116.123597442145</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>124.1385950856003</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>12.96586024977523</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>164.5564777954188</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>104.6629643467396</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>397.3937840614699</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>63.91311865749856</v>
       </c>
       <c r="T16" t="n">
-        <v>15.07105359596696</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.53581317547591</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>267.9145492628609</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>158.0809632437116</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>6.759898196019378</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>123.2265937739274</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>62.77639629503092</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>112.9606863843808</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.87150307934127</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.0045900020172</v>
       </c>
       <c r="T31" t="n">
-        <v>185.0411840743711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>170.5238172955577</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>111.937657819554</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>8.137444434175791</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>233.3585426522018</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3443887874888</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>68.58716325894378</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>24.33348143222435</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>117.2205539080142</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>81.92459019256988</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>282.0073617078908</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>193.2216948793983</v>
       </c>
       <c r="V46" t="n">
-        <v>92.77272027672055</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>614521.8907848073</v>
+        <v>616357.7455463789</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>614521.8907848073</v>
+        <v>622301.8405043748</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>614521.8907848073</v>
+        <v>622301.8405043748</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>515578.1941755711</v>
+        <v>648457.7901644473</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>515578.1941755711</v>
+        <v>648457.7901644473</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>648457.7901644474</v>
+        <v>648457.7901644473</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>648457.7901644474</v>
+        <v>648457.7901644475</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>648457.7901644474</v>
+        <v>648457.7901644475</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>648457.7901644475</v>
+        <v>648457.7901644474</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>648457.7901644474</v>
+        <v>648457.7901644473</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648457.7901644474</v>
+        <v>648457.7901644473</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>648457.7901644475</v>
+        <v>648457.7901644474</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>515578.1941755711</v>
+        <v>648457.7901644474</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>515578.1941755711</v>
+        <v>648457.7901644474</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>465954.1344089305</v>
+      </c>
+      <c r="C2" t="n">
+        <v>465954.1344089303</v>
+      </c>
+      <c r="D2" t="n">
         <v>465954.1344089304</v>
       </c>
-      <c r="C2" t="n">
-        <v>465954.1344089306</v>
-      </c>
-      <c r="D2" t="n">
-        <v>465954.1344089305</v>
-      </c>
       <c r="E2" t="n">
-        <v>357511.6055207055</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="F2" t="n">
-        <v>357511.6055207056</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="G2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="H2" t="n">
         <v>449624.3225099578</v>
       </c>
-      <c r="H2" t="n">
-        <v>449624.3225099579</v>
-      </c>
       <c r="I2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.322509958</v>
       </c>
       <c r="J2" t="n">
         <v>449624.3225099577</v>
       </c>
       <c r="K2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449624.322509958</v>
+      </c>
+      <c r="M2" t="n">
+        <v>449624.3225099575</v>
+      </c>
+      <c r="N2" t="n">
+        <v>449624.3225099576</v>
+      </c>
+      <c r="O2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="P2" t="n">
         <v>449624.3225099578</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449624.3225099577</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449624.3225099579</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449624.3225099579</v>
-      </c>
-      <c r="O2" t="n">
-        <v>357511.6055207056</v>
-      </c>
-      <c r="P2" t="n">
-        <v>357511.6055207053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695915</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361191</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096018</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701955</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222411.617985748</v>
+        <v>219126.2750134968</v>
       </c>
       <c r="C4" t="n">
-        <v>222411.617985748</v>
+        <v>208489.0552260627</v>
       </c>
       <c r="D4" t="n">
-        <v>222411.617985748</v>
+        <v>208489.0552260627</v>
       </c>
       <c r="E4" t="n">
-        <v>91657.00479544541</v>
+        <v>115328.9674438158</v>
       </c>
       <c r="F4" t="n">
-        <v>91657.00479544539</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="G4" t="n">
-        <v>115328.9674438159</v>
+        <v>115328.9674438158</v>
       </c>
       <c r="H4" t="n">
         <v>115328.9674438159</v>
@@ -26454,10 +26456,10 @@
         <v>115328.9674438159</v>
       </c>
       <c r="O4" t="n">
-        <v>91657.00479544541</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="P4" t="n">
-        <v>91657.00479544539</v>
+        <v>115328.9674438159</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216131</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27236.08153483359</v>
+        <v>21661.94050368084</v>
       </c>
       <c r="C6" t="n">
-        <v>181861.8021529543</v>
+        <v>166611.9944718276</v>
       </c>
       <c r="D6" t="n">
-        <v>181861.8021529542</v>
+        <v>190018.8281454396</v>
       </c>
       <c r="E6" t="n">
-        <v>78002.90289577859</v>
+        <v>40805.93632107189</v>
       </c>
       <c r="F6" t="n">
-        <v>210766.5709053806</v>
+        <v>256545.2928777124</v>
       </c>
       <c r="G6" t="n">
-        <v>154385.3727834023</v>
+        <v>256545.2928777125</v>
       </c>
       <c r="H6" t="n">
         <v>256545.2928777123</v>
       </c>
       <c r="I6" t="n">
+        <v>256545.2928777124</v>
+      </c>
+      <c r="J6" t="n">
+        <v>129968.0242974231</v>
+      </c>
+      <c r="K6" t="n">
+        <v>237898.6925206928</v>
+      </c>
+      <c r="L6" t="n">
+        <v>256545.2928777124</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76481.42142254424</v>
+      </c>
+      <c r="N6" t="n">
+        <v>256545.292877712</v>
+      </c>
+      <c r="O6" t="n">
+        <v>256545.2928777124</v>
+      </c>
+      <c r="P6" t="n">
         <v>256545.2928777123</v>
-      </c>
-      <c r="J6" t="n">
-        <v>135822.7759349553</v>
-      </c>
-      <c r="K6" t="n">
-        <v>256545.2928777122</v>
-      </c>
-      <c r="L6" t="n">
-        <v>256545.2928777121</v>
-      </c>
-      <c r="M6" t="n">
-        <v>145735.932768579</v>
-      </c>
-      <c r="N6" t="n">
-        <v>256545.2928777123</v>
-      </c>
-      <c r="O6" t="n">
-        <v>210766.5709053805</v>
-      </c>
-      <c r="P6" t="n">
-        <v>210766.5709053804</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>218.3489325283973</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>48.811982020953</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>96.51762061920118</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>9.920245585712905</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>316.7263380150383</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>378.9070755048272</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>83.2996287324829</v>
+        <v>49.71032990541792</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>306.9754453577183</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>158.4040761853105</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>28.94852398394025</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>91.09328970971556</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29329,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -34705,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>419.1474984608587</v>
+        <v>483.776691153969</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>121.0483257753751</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>300.2003557436939</v>
       </c>
       <c r="O3" t="n">
-        <v>435.2356237478844</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>199.677831763245</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34869,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>335.144719185054</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="N5" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>352.3878357835378</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,16 +35096,16 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>364.0963993311495</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>442.7574853255731</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>435.2356237478844</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>67.9041137177578</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>211.6076016844843</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>310.3818991832499</v>
       </c>
       <c r="K11" t="n">
-        <v>436.8066797001292</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>845.2513212958648</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>27.96676420704021</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937694</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35644,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>80.33713509547913</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374939</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,10 +35664,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>838.0562926047351</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35896,16 +35898,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>981.7058813107108</v>
+        <v>920.9694036435619</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36139,7 +36141,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>181.2265984013702</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>452.1971664929787</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36841,19 +36843,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>726.1504520311679</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>462.773936363287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.24192940494229</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>595.2046518540839</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>956.0658734672517</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37546,16 +37548,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>679.0534713570016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
@@ -37631,13 +37633,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>270.956641821935</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.3921559610393249</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38017,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>114.3621256483122</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>94.78056922860335</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>102.3677538807717</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>58.0720487112672</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1507546.277265545</v>
+        <v>1506849.616060455</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954497</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114766</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7416764.500254247</v>
+        <v>7416764.500254248</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>181.9467392580486</v>
+        <v>2.348758443385806</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -712,10 +712,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -822,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -870,19 +870,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>267.4623584289859</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>185.5946311682315</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -898,16 +898,16 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>43.72464718200572</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>94.191179144842</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>120.5425075844552</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1113,13 +1113,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>156.9481158136208</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>79.07468118240284</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1144,16 +1144,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>249.1987226586197</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1305,7 +1305,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>73.50111029899462</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>77.34040729634083</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396377</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1581,7 +1581,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>135.4752932419133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>150.6143017732768</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396359</v>
+        <v>34.54790254396352</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>104.5205783485579</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1827,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>239.5210395955188</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1858,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446594</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2016,10 +2016,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087176</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2058,13 +2058,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>72.20356676200565</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>4.189330526351196</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2089,19 +2089,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250128</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>12.06219323947358</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2329,7 +2329,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.03771525101762</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2715,19 +2715,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>221.0228496387101</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.42910700403934</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3012,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>128.2005997690989</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924945</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3286,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396341</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>101.9929615813389</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>38.74533713701027</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>208.795440755755</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3805,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439307</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>88.2185662906153</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>11.12043047005062</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3979,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4191,10 +4191,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>84.1609091353005</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1044.425230527181</v>
+        <v>565.1447501682231</v>
       </c>
       <c r="C2" t="n">
-        <v>617.5245005404813</v>
+        <v>542.2844242219273</v>
       </c>
       <c r="D2" t="n">
-        <v>598.2722837658856</v>
+        <v>523.0322074473316</v>
       </c>
       <c r="E2" t="n">
-        <v>576.3357479541472</v>
+        <v>97.05526759518921</v>
       </c>
       <c r="F2" t="n">
-        <v>555.2519701839515</v>
+        <v>75.97148982499351</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748115</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="H2" t="n">
-        <v>73.5990065488463</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K2" t="n">
-        <v>401.305594109213</v>
+        <v>517.6410595347458</v>
       </c>
       <c r="L2" t="n">
-        <v>401.305594109213</v>
+        <v>517.6410595347458</v>
       </c>
       <c r="M2" t="n">
-        <v>880.2445183516422</v>
+        <v>996.5799837771741</v>
       </c>
       <c r="N2" t="n">
-        <v>1359.183442594071</v>
+        <v>1475.518908019602</v>
       </c>
       <c r="O2" t="n">
-        <v>1479.021285111693</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="P2" t="n">
-        <v>1479.021285111693</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615876</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615876</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489016</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489016</v>
+        <v>1609.813899533646</v>
       </c>
       <c r="U2" t="n">
-        <v>1830.739470489016</v>
+        <v>1351.458990130058</v>
       </c>
       <c r="V2" t="n">
-        <v>1473.250055615266</v>
+        <v>993.9695752563075</v>
       </c>
       <c r="W2" t="n">
-        <v>1473.250055615266</v>
+        <v>993.9695752563075</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.570460823417</v>
+        <v>986.2899804644588</v>
       </c>
       <c r="Y2" t="n">
-        <v>1464.273594818711</v>
+        <v>580.9527104193492</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237728</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412776</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565626</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294998</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
         <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000792</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422936</v>
+        <v>46.14877825422928</v>
       </c>
       <c r="J3" t="n">
-        <v>46.14877825422936</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>525.0877024966586</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>525.0877024966586</v>
+        <v>796.7851917762487</v>
       </c>
       <c r="M3" t="n">
-        <v>525.0877024966586</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="N3" t="n">
-        <v>822.2860546829156</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="O3" t="n">
-        <v>822.2860546829156</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
         <v>1301.224978925345</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.4455243905431</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438355</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>978.0869893247088</v>
+        <v>786.7047107178854</v>
       </c>
       <c r="C4" t="n">
-        <v>806.1144262036248</v>
+        <v>614.7321475968014</v>
       </c>
       <c r="D4" t="n">
-        <v>642.7976533303955</v>
+        <v>614.7321475968014</v>
       </c>
       <c r="E4" t="n">
-        <v>476.589447483249</v>
+        <v>448.523941749655</v>
       </c>
       <c r="F4" t="n">
-        <v>304.7276732578094</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>138.4707035520416</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520416</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647553</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>520.4021181679252</v>
+        <v>619.9190577925754</v>
       </c>
       <c r="M4" t="n">
-        <v>911.587913138176</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.079424014212</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1644.507552693975</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615876</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615876</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303049</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822184</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.593756048084</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="U4" t="n">
-        <v>1204.429757634967</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="V4" t="n">
-        <v>1204.429757634967</v>
+        <v>1530.463779409825</v>
       </c>
       <c r="W4" t="n">
-        <v>1204.429757634967</v>
+        <v>1255.611375582338</v>
       </c>
       <c r="X4" t="n">
-        <v>1204.429757634967</v>
+        <v>1013.047479028143</v>
       </c>
       <c r="Y4" t="n">
-        <v>978.0869893247088</v>
+        <v>786.7047107178854</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.316532141587</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1745.630772103422</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>1388.141357229671</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W5" t="n">
-        <v>1388.141357229671</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.461762437823</v>
+        <v>1487.898388547897</v>
       </c>
       <c r="Y5" t="n">
-        <v>975.124492392713</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>767.4624187845752</v>
+        <v>817.6261093758709</v>
       </c>
       <c r="C7" t="n">
-        <v>645.7023101134083</v>
+        <v>645.6535462547869</v>
       </c>
       <c r="D7" t="n">
-        <v>482.385537240179</v>
+        <v>482.3367733815576</v>
       </c>
       <c r="E7" t="n">
-        <v>482.385537240179</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F7" t="n">
-        <v>310.5237630147394</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
         <v>144.2667933089716</v>
@@ -4728,13 +4728,13 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
         <v>1451.883781619951</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688276</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1701.387456188581</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1701.387456188581</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1426.535052361094</v>
+        <v>1043.968877686129</v>
       </c>
       <c r="X7" t="n">
-        <v>1183.971155806899</v>
+        <v>1043.968877686129</v>
       </c>
       <c r="Y7" t="n">
-        <v>957.6283874966409</v>
+        <v>817.6261093758709</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>972.9074190595572</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1651.269438076291</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4840,16 +4840,16 @@
         <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1504.699634058179</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W8" t="n">
-        <v>1504.699634058179</v>
+        <v>1465.797699232276</v>
       </c>
       <c r="X8" t="n">
-        <v>1252.983752584825</v>
+        <v>1054.077700400023</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.68688658012</v>
+        <v>1052.780834395318</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L9" t="n">
-        <v>602.6104029955975</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M9" t="n">
-        <v>1153.275937980036</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>1153.275937980036</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1153.275937980036</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.941472964474</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>792.1010868727071</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C10" t="n">
-        <v>620.1285237516231</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D10" t="n">
-        <v>456.8117508783938</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E10" t="n">
-        <v>290.6035450312473</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>118.7417708058078</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>2007.737591668684</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V10" t="n">
-        <v>1726.026124276713</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W10" t="n">
-        <v>1451.173720449226</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X10" t="n">
-        <v>1208.609823895031</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y10" t="n">
-        <v>982.2670555847728</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261617</v>
@@ -5029,40 +5029,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883228</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623576</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>409.5807935972459</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3105.626261478504</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>3950.770911629316</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>4659.050190787244</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5086,7 +5086,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>939.1015214887346</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M12" t="n">
-        <v>939.1015214887346</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N12" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3507.861222208871</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="C13" t="n">
-        <v>3507.861222208871</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="D13" t="n">
-        <v>3344.544449335642</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E13" t="n">
-        <v>3344.544449335642</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F13" t="n">
-        <v>3344.544449335642</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>3178.287479629874</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>3034.491211138028</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>2934.722642878304</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>2992.213971102462</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302477</v>
       </c>
       <c r="M13" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N13" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O13" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P13" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q13" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R13" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S13" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T13" t="n">
-        <v>4897.962009497735</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U13" t="n">
-        <v>4617.77756099804</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V13" t="n">
-        <v>4336.066093606069</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W13" t="n">
-        <v>4061.213689778582</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="X13" t="n">
-        <v>3924.369959231195</v>
+        <v>1017.742919805306</v>
       </c>
       <c r="Y13" t="n">
-        <v>3698.027190920936</v>
+        <v>865.607261448461</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
@@ -5269,7 +5269,7 @@
         <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623574</v>
@@ -5284,19 +5284,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M14" t="n">
-        <v>2988.069926596602</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596602</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q14" t="n">
         <v>4997.579335409525</v>
@@ -5308,16 +5308,16 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N15" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3688.37878668216</v>
+        <v>374.0438447866366</v>
       </c>
       <c r="C16" t="n">
-        <v>3516.406223561076</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D16" t="n">
-        <v>3516.406223561076</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E16" t="n">
-        <v>3516.406223561076</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F16" t="n">
-        <v>3344.544449335636</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G16" t="n">
-        <v>3178.287479629868</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>4962.52071521238</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>4719.18136743828</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>4438.996918938585</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>4157.285451546613</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>4157.285451546613</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>3914.721554992418</v>
+        <v>790.5525818089602</v>
       </c>
       <c r="Y16" t="n">
-        <v>3688.37878668216</v>
+        <v>564.2098134987023</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5521,16 +5521,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O17" t="n">
-        <v>4090.576687723259</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P17" t="n">
         <v>4659.050190787244</v>
@@ -5560,7 +5560,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1013.511272808989</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808989</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357596</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886131</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631735</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5706,19 +5706,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1749.269836531967</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1749.269836531967</v>
       </c>
       <c r="W19" t="n">
-        <v>1256.075169363184</v>
+        <v>1474.41743270448</v>
       </c>
       <c r="X19" t="n">
-        <v>1013.511272808989</v>
+        <v>1231.853536150285</v>
       </c>
       <c r="Y19" t="n">
-        <v>1013.511272808989</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5755,19 +5755,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L20" t="n">
-        <v>1715.81204584877</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>2720.098147267829</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
         <v>4541.493855905342</v>
@@ -5788,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818557</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>615.9842888225141</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>444.0117257014301</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>280.6949528282008</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>114.4867469810544</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5940,22 +5940,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1032.493025844838</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>806.1502575345799</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D23" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E23" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6025,16 +6025,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W23" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X23" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y23" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1015214887346</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1022.167063056836</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>850.1944999357522</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
         <v>850.1944999357522</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V25" t="n">
-        <v>1589.056897064296</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W25" t="n">
-        <v>1314.204493236809</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>1314.204493236809</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>1087.861724926551</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8764559848257</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8764559848257</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6414,22 +6414,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1365.801493388831</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1090.949089561344</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3851930071494</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>622.0424246968914</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2217.06186790609</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1973.72252013199</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1693.538071632295</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1411.826604240323</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1411.826604240323</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1411.826604240323</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>1185.483835930065</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3688.37878668216</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C34" t="n">
-        <v>3516.406223561076</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D34" t="n">
-        <v>3516.406223561076</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X34" t="n">
-        <v>3688.37878668216</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y34" t="n">
-        <v>3688.37878668216</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6946,19 +6946,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3105.626261478504</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478504</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6973,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.3984947971121</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C37" t="n">
-        <v>750.4259316760281</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1992.33777973203</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>1712.153331232334</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>1430.441863840363</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>1391.305159661565</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>1148.74126310737</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.3984947971121</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="38">
@@ -7183,19 +7183,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2110.0395278175</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N38" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7250,25 +7250,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
         <v>1364.825557038856</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>913.8534934449018</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>741.8809303238178</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>578.5641574505885</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1854.637594413391</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1572.92612702142</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1572.92612702142</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1330.362230467225</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>1104.019462156967</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
         <v>435.0679631883225</v>
@@ -7420,19 +7420,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7456,7 +7456,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
         <v>1364.825557038856</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>601.2341827829796</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C43" t="n">
-        <v>601.2341827829796</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D43" t="n">
-        <v>601.2341827829796</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E43" t="n">
-        <v>601.2341827829796</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7590,31 +7590,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>2271.4829827684</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W43" t="n">
-        <v>1260.306816359498</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.742919805303</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y43" t="n">
-        <v>791.4001514950452</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,13 +7636,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7657,10 +7657,10 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
         <v>3833.214576747414</v>
@@ -7684,16 +7684,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>3578.14552899051</v>
+        <v>140.1622235167214</v>
       </c>
       <c r="K45" t="n">
-        <v>3578.14552899051</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L45" t="n">
-        <v>3578.14552899051</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M45" t="n">
-        <v>3578.14552899051</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N45" t="n">
-        <v>3578.14552899051</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O45" t="n">
-        <v>4467.626807001981</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>4568.970883343945</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3682.72521830387</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C46" t="n">
-        <v>3510.752655182786</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D46" t="n">
-        <v>3510.752655182786</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E46" t="n">
-        <v>3344.54444933564</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F46" t="n">
-        <v>3344.54444933564</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G46" t="n">
-        <v>3178.287479629872</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H46" t="n">
-        <v>3034.491211138026</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878302</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>4701.661275036462</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>4616.650255707876</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V46" t="n">
-        <v>4616.650255707876</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W46" t="n">
-        <v>4341.797851880388</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X46" t="n">
-        <v>4099.233955326194</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y46" t="n">
-        <v>3872.891187015936</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487774</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540534007</v>
+        <v>521.2079540533998</v>
       </c>
       <c r="N2" t="n">
-        <v>521.056313988415</v>
+        <v>521.0563139884141</v>
       </c>
       <c r="O2" t="n">
-        <v>158.4392851313992</v>
+        <v>501.6211175340744</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8057,25 +8057,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873023</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681976</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.873471666296</v>
       </c>
       <c r="N3" t="n">
-        <v>321.5433839572356</v>
+        <v>47.10147559401402</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587976</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>221.5965916589462</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>215.393196917832</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
@@ -8224,7 +8224,7 @@
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>571.1852249800523</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8233,13 +8233,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>86.31943126580316</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>178.8848775931265</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8385,7 +8385,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160406</v>
+        <v>402.0534574160413</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>547.9768619480851</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
@@ -8476,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>171.3630160154378</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
@@ -8552,10 +8552,10 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.6511520067363</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>339.8018586688364</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,28 +8771,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8947,7 +8947,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>322.1890847023786</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>419.9591894246358</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>697.8614369098447</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9178,10 +9178,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>611.7910214708227</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9242,31 +9242,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>292.3948789900137</v>
       </c>
       <c r="M18" t="n">
-        <v>944.0661841558899</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L20" t="n">
-        <v>579.1176643018625</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9418,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,10 +9500,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9737,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>164.7792732268216</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1043.074428213578</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
         <v>37.27962283444602</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>625.4779643536372</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10913,13 +10913,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>425.7272987035383</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
@@ -11156,7 +11156,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>700.5970200580485</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>763.430074865614</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11375,10 +11375,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>58.8530437382756</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>124.1385950856003</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>104.6629643467396</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>73.46503885387855</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>63.91311865749856</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.6172179931341191</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>205.1790372526931</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>267.9145492628609</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>158.0809632437116</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>123.2265937739274</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.87150307934127</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>150.0045900020172</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>114.6701458615095</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>111.937657819554</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>68.15019490184626</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>233.3585426522018</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.58716325894378</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>81.92459019256988</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.7855238263084</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>90.77286840263298</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>193.2216948793983</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648457.7901644473</v>
+        <v>648457.7901644475</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>648457.7901644473</v>
+        <v>648457.7901644474</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>648457.7901644473</v>
+        <v>648457.7901644474</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>648457.7901644475</v>
+        <v>648457.7901644474</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>648457.7901644475</v>
+        <v>648457.7901644474</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>648457.7901644473</v>
+        <v>648457.7901644474</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648457.7901644473</v>
+        <v>648457.7901644474</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>648457.7901644474</v>
+        <v>648457.7901644475</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>465954.1344089304</v>
+      </c>
+      <c r="C2" t="n">
         <v>465954.1344089305</v>
-      </c>
-      <c r="C2" t="n">
-        <v>465954.1344089303</v>
       </c>
       <c r="D2" t="n">
         <v>465954.1344089304</v>
       </c>
       <c r="E2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099577</v>
       </c>
       <c r="F2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.322509958</v>
       </c>
       <c r="G2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="H2" t="n">
+        <v>449624.322509958</v>
+      </c>
+      <c r="I2" t="n">
         <v>449624.3225099578</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="K2" t="n">
+        <v>449624.3225099581</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="M2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="N2" t="n">
         <v>449624.322509958</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449624.3225099577</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449624.3225099579</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449624.322509958</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449624.3225099575</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449624.3225099576</v>
       </c>
       <c r="O2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="P2" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099579</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695915</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361191</v>
+        <v>23406.83367361221</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566405</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802891</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701955</v>
+        <v>18646.60035701978</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219126.2750134968</v>
+        <v>219126.275013497</v>
       </c>
       <c r="C4" t="n">
         <v>208489.0552260627</v>
@@ -26426,13 +26426,13 @@
         <v>208489.0552260627</v>
       </c>
       <c r="E4" t="n">
-        <v>115328.9674438158</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="F4" t="n">
         <v>115328.9674438159</v>
       </c>
       <c r="G4" t="n">
-        <v>115328.9674438158</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="H4" t="n">
         <v>115328.9674438159</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216131</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21661.94050368084</v>
+        <v>21661.94050368101</v>
       </c>
       <c r="C6" t="n">
-        <v>166611.9944718276</v>
+        <v>166611.9944718275</v>
       </c>
       <c r="D6" t="n">
-        <v>190018.8281454396</v>
+        <v>190018.8281454395</v>
       </c>
       <c r="E6" t="n">
-        <v>40805.93632107189</v>
+        <v>40754.90565888716</v>
       </c>
       <c r="F6" t="n">
-        <v>256545.2928777124</v>
+        <v>256494.2622155281</v>
       </c>
       <c r="G6" t="n">
-        <v>256545.2928777125</v>
+        <v>256494.262215528</v>
       </c>
       <c r="H6" t="n">
-        <v>256545.2928777123</v>
+        <v>256494.2622155281</v>
       </c>
       <c r="I6" t="n">
-        <v>256545.2928777124</v>
+        <v>256494.2622155279</v>
       </c>
       <c r="J6" t="n">
-        <v>129968.0242974231</v>
+        <v>129916.9936352392</v>
       </c>
       <c r="K6" t="n">
-        <v>237898.6925206928</v>
+        <v>237847.6618585084</v>
       </c>
       <c r="L6" t="n">
-        <v>256545.2928777124</v>
+        <v>256494.2622155281</v>
       </c>
       <c r="M6" t="n">
-        <v>76481.42142254424</v>
+        <v>76430.3907603603</v>
       </c>
       <c r="N6" t="n">
-        <v>256545.292877712</v>
+        <v>256494.2622155281</v>
       </c>
       <c r="O6" t="n">
-        <v>256545.2928777124</v>
+        <v>256494.2622155281</v>
       </c>
       <c r="P6" t="n">
-        <v>256545.2928777123</v>
+        <v>256494.2622155279</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153969</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153969</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162518</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153969</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162518</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153969</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162518</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>218.3489325283973</v>
+        <v>397.94691334306</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>9.920245585712905</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>93.29972154981991</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,16 +27618,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>378.9070755048272</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>307.0927181998165</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>49.71032990541792</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.1557639755913</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>336.5751994662119</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>158.4040761853105</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>91.09328970971556</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>200.0421967183579</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28277,7 +28277,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-7.81894760577762e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-4.899834402345291e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30656,7 +30656,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-6.32385741655959e-13</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>483.776691153969</v>
+        <v>483.776691153968</v>
       </c>
       <c r="N2" t="n">
-        <v>483.776691153969</v>
+        <v>483.776691153968</v>
       </c>
       <c r="O2" t="n">
-        <v>121.0483257753751</v>
+        <v>464.2301581780503</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>483.776691153969</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="N3" t="n">
-        <v>300.2003557436939</v>
+        <v>25.75844738047236</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.776691153969</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>199.677831763245</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>193.0123962598455</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
@@ -34944,7 +34944,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>158.2737632597931</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35105,7 +35105,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404409</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>510.5455990486533</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>150.7519016821044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
@@ -35272,10 +35272,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.9041137177578</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>310.3818991832499</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>228.8157587937694</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115393</v>
       </c>
       <c r="M13" t="n">
         <v>395.137166636617</v>
@@ -35652,13 +35652,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35667,7 +35667,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>659.5493944772218</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35898,10 +35898,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>574.2156596605913</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35962,31 +35962,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="M18" t="n">
-        <v>920.9694036435619</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L20" t="n">
-        <v>540.8056218692396</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36138,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>142.264186512592</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.643165314146</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
@@ -37633,13 +37633,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>678.8261788532199</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -37952,7 +37952,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977398</v>
       </c>
       <c r="P43" t="n">
         <v>293.5345574968697</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>726.1504520311679</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>38.24192940494226</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>102.3677538807717</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.0720487112672</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>
